--- a/scripts/resources/final_decision_yes.xlsx
+++ b/scripts/resources/final_decision_yes.xlsx
@@ -1,58 +1,903 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="10668" windowHeight="9000"/>
+  </bookViews>
   <sheets>
     <sheet name="Yes Decisions" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
+  <si>
+    <t>Startup Name</t>
+  </si>
+  <si>
+    <t>Total Responses</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>Nath</t>
+  </si>
+  <si>
+    <t>FINAL DECISION</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE NUMBER</t>
+  </si>
+  <si>
+    <t>STARTUP DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>INITIAL EVALUATION SCORE</t>
+  </si>
+  <si>
+    <t>7 Mobile</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>tosine007@gmail.com</t>
+  </si>
+  <si>
+    <t>We developed a LTE wireless network using alternative technology that involve a software defined radio and a general purpose computer to create a functional LTE network that adapts well with other software technologies to make communication cheaper and effective between machines and human alike. But we have focused our innovations on machine-machine communication to create a smart city infrastructure</t>
+  </si>
+  <si>
+    <t>Telecommunication</t>
+  </si>
+  <si>
+    <t>7mobile.ng</t>
+  </si>
+  <si>
+    <t>AgroGuard</t>
+  </si>
+  <si>
+    <t>iamismailahmadbiso@gmail.com</t>
+  </si>
+  <si>
+    <t>AgroGuard is a smart farming solution that integrates IoT sensors and AI powered disease detection to help farmers monitor crops, detect risks, and optimize farm productivity. The system provides real time alerts via SMS, LCD, and buzzer notifications for abnormal conditions like low soil moisture, fire risks, extreme weather, and plant diseases.</t>
+  </si>
+  <si>
+    <t>Agri-Tech</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>CHOTA AVS</t>
+  </si>
+  <si>
+    <t>uzo@anadata.co</t>
+  </si>
+  <si>
+    <t>Chota simplifies address verification in emerging markets using geospatial data, AI, and Big Data sources like Telecommunications networks, utilities, last-mile delivery, and P2P attestations. We streamline KYC processes, enhance onboarding, and enable scalable solutions for businesses, banks, and governments.</t>
+  </si>
+  <si>
+    <t>KYC Technology</t>
+  </si>
+  <si>
+    <t>https://chota.ng/</t>
+  </si>
+  <si>
+    <t>Climatrix AI</t>
+  </si>
+  <si>
+    <t>alfarouqfahm52@gmail.com</t>
+  </si>
+  <si>
+    <t>Climatrix AI revolutionizes flood management with cutting-edge technology that combines real-time data, AI-driven predictions, and IoT-powered hardware. Our platform delivers accurate flood forecasts, instant alerts, and personalized disaster management tips, while HYDROSENTINEL 1.0, our solar-powered weather station, monitors water levels continuously. Backed by 80+ years of data and advanced AI models like Pangu, we empower communities, governments, and industries to mitigate flood risks, save lives, and protect livelihoods. Climatrix AI is shaping a safer, more resilient future.</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>www.climatrixai.com</t>
+  </si>
+  <si>
+    <t>ConnectED</t>
+  </si>
+  <si>
+    <t>uramalan@gmail.com</t>
+  </si>
+  <si>
+    <t>ConnectED is a platform that helps people without internet access get important information through SMS and also the use of Artificial Intelligence. We work with organizations to send trusted updates on health, education, farming, and more, so people can stay informed using just their basic mobile phones</t>
+  </si>
+  <si>
+    <t>https://connectedai.net/</t>
+  </si>
+  <si>
+    <t>Dilivar</t>
+  </si>
+  <si>
+    <t>dilivarinc@gmail.com</t>
+  </si>
+  <si>
+    <t>Dilivar is an AI-powered last-mile logistics platform that seamlessly connects customers, businesses, and logistics providers for fast, efficient, and eco-friendly deliveries. Through real-time route optimization, blockchain-secured payments, and a smart business dashboard, Dilivar enhances delivery speed, transparency, and operational efficiency.</t>
+  </si>
+  <si>
+    <t>Transportation/Logistics</t>
+  </si>
+  <si>
+    <t>https://dilivar.com</t>
+  </si>
+  <si>
+    <t>Dynalimb Technologies</t>
+  </si>
+  <si>
+    <t>akinsanyataiwo49@gmail.com</t>
+  </si>
+  <si>
+    <t>Dynalimb is a healthcare technology company revolutionizing prosthetic limb solutions for individuals in need. Leveraging cutting-edge technology, innovative design, and patient-centric approach, Dynalimb creates affordable, accessible, and high-quality prosthetic limbs that empower individuals to regain mobility, independence, and confidence.</t>
+  </si>
+  <si>
+    <t>Health Tech</t>
+  </si>
+  <si>
+    <t>www.dynalimb.ng</t>
+  </si>
+  <si>
+    <t>EMERGENCY RESPONSE AFRICA</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>folake@emergencyresponseafrica.com</t>
+  </si>
+  <si>
+    <t>Emergency Response Africa (ERA) is a healthcare technology social enterprise based in Lagos, Nigeria. Dedicated to saving lives by providing fast, reliable emergency medical response, ERA utilizes technology to connect the largest network of first responders, emergency vehicles, and hospitals to individuals facing medical emergencies in minutes. Our platform enables smart dispatching, seamless communication, and real-time data transfer, generating insights for decision-making and resource allocation. ERA has worked with Health Management Organizations (HMOs), and corporations in construction, event management, logistics, manufacturing, real estate, etc. as well as with state governments such as Edo, Ogun, Rivers, and Ekiti States. Since its inception, ERA has managed 6,000+ incidents including obstetric, cardiovascular emergencies, and road accidents, reducing response times by 40-80%. Also, trained and deployed 200 community-based first responders (CBFRs) and certified more than 1,700 people in first aid. Looking ahead, ERA is committed to scaling its model across Africa to create sustainable EMS systems that can provide all Africans with access to life-saving emergency care.</t>
+  </si>
+  <si>
+    <t>https://www.emergencyresponseafrica.com/</t>
+  </si>
+  <si>
+    <t>Farm intel</t>
+  </si>
+  <si>
+    <t>farminteltechnologies@gmail.com</t>
+  </si>
+  <si>
+    <t>FarmIntel is an innovative agricultural technology solution focused on empowering African farmers with tools to enhance crop health and maximize yields. By leveraging advanced AI and satellite technology, FarmIntel provides real- time crop health diagnostics, pest and disease detection, and timely notifications about soil health and weather changes. Our mission is to improve food security in Africa, starting from Nigeria, and enable farmers to farm smarter, not harder.</t>
+  </si>
+  <si>
+    <t>Farmintel.org</t>
+  </si>
+  <si>
+    <t>FastFind360</t>
+  </si>
+  <si>
+    <t>muhammadmuhammadtukur13@gmail.com</t>
+  </si>
+  <si>
+    <t>FastFind360 is an AI-powered property search and verification platform that leverages satellite technology, geospatial data, and blockchain to eliminate fraud, provide real-time property insights, and connect buyers with trusted listings. It integrates satellite imagery for accurate mapping and infrastructure visualization, ensuring safe and informed property investments across Nigeria.</t>
+  </si>
+  <si>
+    <t>Property Tech</t>
+  </si>
+  <si>
+    <t>https://fastfind360-app.web.app/</t>
+  </si>
+  <si>
+    <t>FIRST RESPONSE AI</t>
+  </si>
+  <si>
+    <t>christopheremelifejnr@gmail.com</t>
+  </si>
+  <si>
+    <t>Firstresponse AI is a health-tech startup solving the problem of delay in emergency services in Nigeria through the use of its AI symptom diagnosis, first aid recommendation, hospital pre-patient registration, and emergency/ambulatory service integration, we're empowering hospitals/healthcare centers to optimize emergency services and guarantee efficient patient outcome.</t>
+  </si>
+  <si>
+    <t>firstresponse-ai.lovable.app</t>
+  </si>
+  <si>
+    <t>FLOEWS</t>
+  </si>
+  <si>
+    <t>bbkrbashir@yahoo.com</t>
+  </si>
+  <si>
+    <t>FLOEWS is a Novel Nigerian ClimateTech startup that is helping solve the problem of the persisting adversity of climate change, extreme weather, natural disaster (flood), by empowering Africa's vulnerable individuals, communities, businesses and economies with AI-Powered climate disaster risk management &amp; early warning intelligence as actionable insight for effective decision making &amp; enhancing climate resilience.</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>https://taplink.cc/floewslink</t>
+  </si>
+  <si>
+    <t>Flood Shield Jigawa</t>
+  </si>
+  <si>
+    <t>usmaniliyasu77@gmail.com</t>
+  </si>
+  <si>
+    <t>Flood Shield Jigawa is a climate-tech startup using space technology, satellite data, AI, and smart sensors to provide real-time flood detection and early warning systems for vulnerable communities. We empower local governments, farmers, and emergency responders with tools to predict, monitor, and respond to flood risks, helping save lives, protect farmlands, and build climate resilience from the grassroots.</t>
+  </si>
+  <si>
+    <t>Disaster Management</t>
+  </si>
+  <si>
+    <t>Friendnpal</t>
+  </si>
+  <si>
+    <t>esstar100@gmail.com</t>
+  </si>
+  <si>
+    <t>FriendnPal is Africa’s first AI-powered, multilingual mental health platform, designed to break barriers of access, affordability, and stigma. By integrating AI-driven therapy, human therapists, and offline capabilities (WhatsApp, SMS, and voice-based interventions), we provide culturally relevant, stigma-free, and affordable mental health support to underserved communities, including migrants, refugees, and low-income populations.</t>
+  </si>
+  <si>
+    <t>https://friendnpal.com</t>
+  </si>
+  <si>
+    <t>Galaxy Star Networking Limited</t>
+  </si>
+  <si>
+    <t>ameenuumarmalu@gmail.com</t>
+  </si>
+  <si>
+    <t>Emergency and security reporting system is software that provides sustainable sulution to criminal activities in Northern Nigeria and the country at large. The system will help the securities agencies to track the exact location of the incident as in the issue of emergency such as kidnappings, arm robbery, accident and other emergency problems. The system use satellite technology to track the movement of the victims and use Google Maps to track the exact location also the software use voice detection as means of reporting emergency issues to the relevant authorities.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Geonet</t>
+  </si>
+  <si>
+    <t>sylvester.ola.george@gmail.ocm</t>
+  </si>
+  <si>
+    <t>Geonet Founded in May 2024, Geonet is a groundbreaking startup dedicated to bridging the digital divide in Nigeria. By leveraging advanced satellite internet technology, Geonet delivers reliable, high-speed connectivity to underserved rural and remote areas. Our mission is to empower communities by providing equal access to critical digital resources and communication opportunities.</t>
+  </si>
+  <si>
+    <t>https://geonet.geoinc.co/</t>
+  </si>
+  <si>
+    <t>Green Acumen</t>
+  </si>
+  <si>
+    <t>sd@greenacumen.com</t>
+  </si>
+  <si>
+    <t>Green Acumen Technologies leverages satellite technology and AI powered platformed analytics for ESG and sustainability performance measurement, management and reporting.</t>
+  </si>
+  <si>
+    <t>www.greenacumen.com</t>
+  </si>
+  <si>
+    <t>Gugu Robotics Inc.</t>
+  </si>
+  <si>
+    <t>Emmanuelobed877@gmail.com</t>
+  </si>
+  <si>
+    <t>Gugu Robotics is an innovative startup developing AI-powered robots and sustainable technology solutions for industries, defense, and exploration. Our cutting-edge products, like the Cybunk 5.1 rover and PhotonPulse Infinity Generator, push the boundaries of automation, energy, and autonomy. Recognized as Africa’s fastest-growing robotics company, we combine AI, robotics, and renewable energy to create intelligent, self-sustaining systems. The Future is Now!</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>gugurobotics.com.ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDB ANALYTICS </t>
+  </si>
+  <si>
+    <t>idbanalyticsresearchlab@outlook.com</t>
+  </si>
+  <si>
+    <t>IDB ANALYTICS LTD is a data-driven research and technology company leveraging artificial intelligence, geospatial analytics, and satellite technology to address Nigeria’s most pressing security and environmental challenges. Our primary focus is mitigating conflicts between farmers and herders while enhancing security monitoring across hotspot zones prone to violence and insurgency.By integrating real-time satellite imagery, AI-powered predictive analytics, and mobile migration history data, we provide proactive conflict prevention and early warning systems for local communities, security agencies, and policymakers.</t>
+  </si>
+  <si>
+    <t>Idle Farmer</t>
+  </si>
+  <si>
+    <t>danielbalmun@gmail.com</t>
+  </si>
+  <si>
+    <t>Idlefarmer is a digital solution that streamlines access to essential agricultural services for smallholder farmers through input aggregation, distribution, and mechanization. Through our web application, farmers can request and share tractors, place bulk orders for farm inputs, and access real-time support from our crowdsourced network of trusted local agents—all in one place. By grouping demand, Idlefarmer reduces costs, optimizes supply chains, and provides access to shared resources, making farming more efficient, affordable, and profitable. Idlefarmer captures farmer, land, and crop data per season, equipment ownership and mechanization data, input supply and demand trends, and farmer credit &amp; financial data—powering operations, financial services, and innovations to build a sustainable and profitable agricultural ecosystem.</t>
+  </si>
+  <si>
+    <t>www.idlefarmer.africa (in-view)</t>
+  </si>
+  <si>
+    <t>LeearNEXO</t>
+  </si>
+  <si>
+    <t>fmdahunsi@gmail.com</t>
+  </si>
+  <si>
+    <t>LearNEXO is a revolutionary edtech solution designed to transform the learning landscape. By harnessing the power of AI, VR, and space tech, we create tailored learning pathways that cater to diverse needs, including students with learning disabilities, and foster a robust educational foundation.</t>
+  </si>
+  <si>
+    <t>Ed-Tech</t>
+  </si>
+  <si>
+    <t>Melon Data Services</t>
+  </si>
+  <si>
+    <t>ayok.omoniyi@gmail.com</t>
+  </si>
+  <si>
+    <t>Melon is a data technology company that provides innovative solutions for data collection, analysis, and visualization. It offers mobile tools for field data collection, real-time analytics, and geospatial intelligence to help organizations make informed decisions. Melon serves sectors like public health, impact evaluation, and retail mapping, leveraging AI and a network of field agents across Nigeria.</t>
+  </si>
+  <si>
+    <t>https://melon.ng/</t>
+  </si>
+  <si>
+    <t>Microvarsity</t>
+  </si>
+  <si>
+    <t>yes/maybe</t>
+  </si>
+  <si>
+    <t>browsedotcom247@gmail.com</t>
+  </si>
+  <si>
+    <t>Microvarsity is a vocational education platform empowering African entrepreneurs in high-impact sectors like agriculture and export. By offering practical, export-focused training, mentorship, and digital tools, we equip learners with the skills needed to scale their businesses globally and drive economic growth.</t>
+  </si>
+  <si>
+    <t>https://microvarsity.com/</t>
+  </si>
+  <si>
+    <t>MyFerry</t>
+  </si>
+  <si>
+    <t>samuel.oke@aide-solutions.com</t>
+  </si>
+  <si>
+    <t>myFerry is a revolutionary mobile-first platform transforming waterway transportation in Nigeria. It aims to solve key challenges such as unreliable scheduling, limited booking options, safety concerns, and underutilized leisure opportunities by integrating advancEd-Technology, including space technology for real-time updates and safety insights.</t>
+  </si>
+  <si>
+    <t>https://efficentlyyours.my.canva.site/findmyferry</t>
+  </si>
+  <si>
+    <t>NEOGIA</t>
+  </si>
+  <si>
+    <t>mail4neogia@gmail.com</t>
+  </si>
+  <si>
+    <t>Neogia is addressing the critical challenges of connectivity and power access in under-served communities across Africa. By leveraging innovative mobile solar charging stations equipped with satellite communication systems, the project provides clean energy and internet access to regions that are often excluded from traditional infrastructure development.</t>
+  </si>
+  <si>
+    <t>www.neogia.africa</t>
+  </si>
+  <si>
+    <t>Neura bridge</t>
+  </si>
+  <si>
+    <t>neurabridge@gmail.com</t>
+  </si>
+  <si>
+    <t>At Neura Bridge, we are using cutting edge artificial intelligence to help users discover, track and convert their savings into the right assets for their financial goals such as stocks, ETFs, Bonds, Agro-commodities, etc</t>
+  </si>
+  <si>
+    <t>Fintech</t>
+  </si>
+  <si>
+    <t>Neurabridge.io</t>
+  </si>
+  <si>
+    <t>OneClick-Med</t>
+  </si>
+  <si>
+    <t>reagan.oneclickmed.ng@gmail.com</t>
+  </si>
+  <si>
+    <t>OneClick-Med is a digital health platform designed to solve the inefficiencies in African healthcare systems caused by fragmented patient records, long wait times, and poor interoperability between hospitals and clinics</t>
+  </si>
+  <si>
+    <t>https://oneclickmed.ng/</t>
+  </si>
+  <si>
+    <t>PRGBYTE</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>contact@program160.com.ng</t>
+  </si>
+  <si>
+    <t>PRGBYTE is a social impact startup dedicated to democratizing internet access in Nigeria. We are building a network of satellite-powered Wi-Fi hotspots, using NIGCOMSAT's infrastructure, to provide affordable, high-speed internet to communities lacking reliable connectivity. Our user-friendly app and flexible data plans make internet access accessible to everyone, driving economic growth and digital inclusion</t>
+  </si>
+  <si>
+    <t>https://prgbyte.program160.com.ng</t>
+  </si>
+  <si>
+    <t>Shara Eco Solution</t>
+  </si>
+  <si>
+    <t>khaleedbnwaleed@gmail.com</t>
+  </si>
+  <si>
+    <t>hara Eco Solutions Ltd. is an innovative waste management startup committed to transforming waste into valuable, eco-friendly resources. Based in Nigeria, our mission is to revolutionize the waste management sector by employing cutting-edge technologies and sustainable practices to reduce environmental impact, enhance recycling, and promote resource recovery</t>
+  </si>
+  <si>
+    <t>http://www.shara.com.ng/</t>
+  </si>
+  <si>
+    <t>Smartiphy</t>
+  </si>
+  <si>
+    <t>iotdatainfo@gmail.com</t>
+  </si>
+  <si>
+    <t>Our company is an IoT and robotics focus enterprise, we build smart solutions based on these technologies to solve agricultural, energy and industrial problems.</t>
+  </si>
+  <si>
+    <t>SoilGenie</t>
+  </si>
+  <si>
+    <t>Aliyuddeen95@gmail.com</t>
+  </si>
+  <si>
+    <t>SoilGenie is an innovative AgriTech startup that leverages data-driven insights to help farmers optimize soil health and maximize crop yields. Our platform provides real-time soil analysis, personalized fertilization recommendations, and precision agriculture solutions, enabling smallholder farmers to increase productivity and sustainability</t>
+  </si>
+  <si>
+    <t>https://soilgenie.pages.dev</t>
+  </si>
+  <si>
+    <t>Teachly</t>
+  </si>
+  <si>
+    <t>tokunboadekanla@gmail.com</t>
+  </si>
+  <si>
+    <t>Teachly is connecting tutors with eager learners across the globe outside the typical academics and traditional classroom. The big concept is to learn anywhere anytime without boundary. We are empowering tutors and enabling connections both in the formal and informal sectors without looking at the typical academic environment.</t>
+  </si>
+  <si>
+    <t>https://www.teachly.com.ng</t>
+  </si>
+  <si>
+    <t>VOREM</t>
+  </si>
+  <si>
+    <t>dominicrume@gmail.com</t>
+  </si>
+  <si>
+    <t>SPACE , AI and blockchain</t>
+  </si>
+  <si>
+    <t>vorem.co</t>
+  </si>
+  <si>
+    <t>WatchersNg</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>syenzy00@gmail.com</t>
+  </si>
+  <si>
+    <t>Watchers.ng is a community-driven security platform that enhances public safety through real-time incident reporting and emergency response.</t>
+  </si>
+  <si>
+    <t>Zion Robotics</t>
+  </si>
+  <si>
+    <t>emekaosu@gmail.com</t>
+  </si>
+  <si>
+    <t>We manufacture made-in-Nigeria robotics kits and Internet of Things development boards. We are the robotics development platform for African education</t>
+  </si>
+  <si>
+    <t>https://zionrobots.com.ng</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +905,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,67 +1532,82 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="20.1" customWidth="1"/>
+    <col min="2" max="2" width="8.8" customWidth="1"/>
+    <col min="3" max="3" width="0.3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1" customWidth="1"/>
+    <col min="6" max="6" width="1.1" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.3" customWidth="1"/>
+    <col min="10" max="10" width="27.9" customWidth="1"/>
+    <col min="12" max="12" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Startup Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Total Responses</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Maybe</v>
-      </c>
-      <c r="D1" t="str">
-        <v>No</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Maureen</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Nath</v>
-      </c>
-      <c r="H1" t="str">
-        <v>FINAL DECISION</v>
-      </c>
-      <c r="I1" t="str">
-        <v>GENDER</v>
-      </c>
-      <c r="J1" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="K1" t="str">
-        <v>PHONE NUMBER</v>
-      </c>
-      <c r="L1" t="str">
-        <v>STARTUP DESCRIPTION</v>
-      </c>
-      <c r="M1" t="str">
-        <v>SECTOR</v>
-      </c>
-      <c r="N1" t="str">
-        <v>WEBSITE</v>
-      </c>
-      <c r="O1" t="str">
-        <v>INITIAL EVALUATION SCORE</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>7 Mobile</v>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -465,40 +1621,40 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J2" t="str">
-        <v>tosine007@gmail.com</v>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K2">
         <v>8060171362</v>
       </c>
-      <c r="L2" t="str">
-        <v>We developed a LTE wireless network using alternative technology that involve a software defined radio and a general purpose computer to create a functional LTE network that adapts well with other software technologies to make communication cheaper and effective between machines and human alike. But we have focused our innovations on machine-machine communication to create a smart city infrastructure</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Telecommunication</v>
-      </c>
-      <c r="N2" t="str">
-        <v>7mobile.ng</v>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
       </c>
       <c r="O2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>AgroGuard</v>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -512,40 +1668,40 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J3" t="str">
-        <v>iamismailahmadbiso@gmail.com</v>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K3">
         <v>2347089459265</v>
       </c>
-      <c r="L3" t="str">
-        <v>AgroGuard is a smart farming solution that integrates IoT sensors and AI powered disease detection to help farmers monitor crops, detect risks, and optimize farm productivity. The system provides real time alerts via SMS, LCD, and buzzer notifications for abnormal conditions like low soil moisture, fire risks, extreme weather, and plant diseases.</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Nil</v>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
       </c>
       <c r="O3">
         <v>6.2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CHOTA AVS</v>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -559,40 +1715,40 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J4" t="str">
-        <v>uzo@anadata.co</v>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="K4">
         <v>2348032576594</v>
       </c>
-      <c r="L4" t="str">
-        <v>Chota simplifies address verification in emerging markets using geospatial data, AI, and Big Data sources like Telecommunications networks, utilities, last-mile delivery, and P2P attestations. We streamline KYC processes, enhance onboarding, and enable scalable solutions for businesses, banks, and governments.</v>
-      </c>
-      <c r="M4" t="str">
-        <v>KYC Technology</v>
-      </c>
-      <c r="N4" t="str">
-        <v>https://chota.ng/</v>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
       <c r="O4">
         <v>5.1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Climatrix AI</v>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -606,40 +1762,40 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G5" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H5" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J5" t="str">
-        <v>alfarouqfahm52@gmail.com</v>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K5">
         <v>2349015567269</v>
       </c>
-      <c r="L5" t="str">
-        <v>Climatrix AI revolutionizes flood management with cutting-edge technology that combines real-time data, AI-driven predictions, and IoT-powered hardware. Our platform delivers accurate flood forecasts, instant alerts, and personalized disaster management tips, while HYDROSENTINEL 1.0, our solar-powered weather station, monitors water levels continuously. Backed by 80+ years of data and advanced AI models like Pangu, we empower communities, governments, and industries to mitigate flood risks, save lives, and protect livelihoods. Climatrix AI is shaping a safer, more resilient future.</v>
-      </c>
-      <c r="M5" t="str">
-        <v>AI</v>
-      </c>
-      <c r="N5" t="str">
-        <v>www.climatrixai.com</v>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
       </c>
       <c r="O5">
         <v>5.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ConnectED</v>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -653,40 +1809,40 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J6" t="str">
-        <v>uramalan@gmail.com</v>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2347035251445</v>
       </c>
-      <c r="L6" t="str">
-        <v>ConnectED is a platform that helps people without internet access get important information through SMS and also the use of Artificial Intelligence. We work with organizations to send trusted updates on health, education, farming, and more, so people can stay informed using just their basic mobile phones</v>
-      </c>
-      <c r="M6" t="str">
-        <v>Telecommunication</v>
-      </c>
-      <c r="N6" t="str">
-        <v>https://connectedai.net/</v>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
       </c>
       <c r="O6">
         <v>2.3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Dilivar</v>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -700,40 +1856,40 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G7" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H7" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J7" t="str">
-        <v>dilivarinc@gmail.com</v>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K7">
         <v>2347061675693</v>
       </c>
-      <c r="L7" t="str">
-        <v>Dilivar is an AI-powered last-mile logistics platform that seamlessly connects customers, businesses, and logistics providers for fast, efficient, and eco-friendly deliveries. Through real-time route optimization, blockchain-secured payments, and a smart business dashboard, Dilivar enhances delivery speed, transparency, and operational efficiency.</v>
-      </c>
-      <c r="M7" t="str">
-        <v>Transportation/Logistics</v>
-      </c>
-      <c r="N7" t="str">
-        <v>https://dilivar.com</v>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
       </c>
       <c r="O7">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Dynalimb Technologies</v>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -747,40 +1903,40 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G8" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H8" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J8" t="str">
-        <v>akinsanyataiwo49@gmail.com</v>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="K8">
         <v>8126636975</v>
       </c>
-      <c r="L8" t="str">
-        <v>Dynalimb is a healthcare technology company revolutionizing prosthetic limb solutions for individuals in need. Leveraging cutting-edge technology, innovative design, and patient-centric approach, Dynalimb creates affordable, accessible, and high-quality prosthetic limbs that empower individuals to regain mobility, independence, and confidence.</v>
-      </c>
-      <c r="M8" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N8" t="str">
-        <v>www.dynalimb.ng</v>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
       </c>
       <c r="O8">
         <v>4.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>EMERGENCY RESPONSE AFRICA</v>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -794,40 +1950,40 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G9" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H9" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Female</v>
-      </c>
-      <c r="J9" t="str">
-        <v>folake@emergencyresponseafrica.com</v>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K9">
         <v>2347067776806</v>
       </c>
-      <c r="L9" t="str">
-        <v>Emergency Response Africa (ERA) is a healthcare technology social enterprise based in Lagos, Nigeria. Dedicated to saving lives by providing fast, reliable emergency medical response, ERA utilizes technology to connect the largest network of first responders, emergency vehicles, and hospitals to individuals facing medical emergencies in minutes. Our platform enables smart dispatching, seamless communication, and real-time data transfer, generating insights for decision-making and resource allocation. ERA has worked with Health Management Organizations (HMOs), and corporations in construction, event management, logistics, manufacturing, real estate, etc. as well as with state governments such as Edo, Ogun, Rivers, and Ekiti States. Since its inception, ERA has managed 6,000+ incidents including obstetric, cardiovascular emergencies, and road accidents, reducing response times by 40-80%. Also, trained and deployed 200 community-based first responders (CBFRs) and certified more than 1,700 people in first aid. Looking ahead, ERA is committed to scaling its model across Africa to create sustainable EMS systems that can provide all Africans with access to life-saving emergency care.</v>
-      </c>
-      <c r="M9" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N9" t="str">
-        <v>https://www.emergencyresponseafrica.com/</v>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
       </c>
       <c r="O9">
         <v>5.7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Farm intel</v>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>56</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -841,40 +1997,40 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G10" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H10" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J10" t="str">
-        <v>farminteltechnologies@gmail.com</v>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="K10">
         <v>2348034643754</v>
       </c>
-      <c r="L10" t="str">
-        <v>FarmIntel is an innovative agricultural technology solution focused on empowering African farmers with tools to enhance crop health and maximize yields. By leveraging advanced AI and satellite technology, FarmIntel provides real- time crop health diagnostics, pest and disease detection, and timely notifications about soil health and weather changes. Our mission is to improve food security in Africa, starting from Nigeria, and enable farmers to farm smarter, not harder.</v>
-      </c>
-      <c r="M10" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N10" t="str">
-        <v>Farmintel.org</v>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
       </c>
       <c r="O10">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>FastFind360</v>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>60</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -888,40 +2044,40 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G11" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H11" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J11" t="str">
-        <v>muhammadmuhammadtukur13@gmail.com</v>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="K11">
         <v>2348056419040</v>
       </c>
-      <c r="L11" t="str">
-        <v>FastFind360 is an AI-powered property search and verification platform that leverages satellite technology, geospatial data, and blockchain to eliminate fraud, provide real-time property insights, and connect buyers with trusted listings. It integrates satellite imagery for accurate mapping and infrastructure visualization, ensuring safe and informed property investments across Nigeria.</v>
-      </c>
-      <c r="M11" t="str">
-        <v>Property Tech</v>
-      </c>
-      <c r="N11" t="str">
-        <v>https://fastfind360-app.web.app/</v>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>FIRST RESPONSE AI</v>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>65</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -935,40 +2091,40 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G12" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H12" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J12" t="str">
-        <v>christopheremelifejnr@gmail.com</v>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K12">
         <v>8138693864</v>
       </c>
-      <c r="L12" t="str">
-        <v>Firstresponse AI is a health-tech startup solving the problem of delay in emergency services in Nigeria through the use of its AI symptom diagnosis, first aid recommendation, hospital pre-patient registration, and emergency/ambulatory service integration, we're empowering hospitals/healthcare centers to optimize emergency services and guarantee efficient patient outcome.</v>
-      </c>
-      <c r="M12" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N12" t="str">
-        <v>firstresponse-ai.lovable.app</v>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
       </c>
       <c r="O12">
         <v>6.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>FLOEWS</v>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>69</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -982,40 +2138,40 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G13" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H13" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J13" t="str">
-        <v>bbkrbashir@yahoo.com</v>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K13">
         <v>2347067954324</v>
       </c>
-      <c r="L13" t="str">
-        <v>FLOEWS is a Novel Nigerian ClimateTech startup that is helping solve the problem of the persisting adversity of climate change, extreme weather, natural disaster (flood), by empowering Africa's vulnerable individuals, communities, businesses and economies with AI-Powered climate disaster risk management &amp; early warning intelligence as actionable insight for effective decision making &amp; enhancing climate resilience.</v>
-      </c>
-      <c r="M13" t="str">
-        <v>Climate Change</v>
-      </c>
-      <c r="N13" t="str">
-        <v>https://taplink.cc/floewslink</v>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
       </c>
       <c r="O13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Flood Shield Jigawa</v>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>74</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1029,37 +2185,37 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G14" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H14" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I14" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J14" t="str">
-        <v>usmaniliyasu77@gmail.com</v>
-      </c>
-      <c r="L14" t="str">
-        <v>Flood Shield Jigawa is a climate-tech startup using space technology, satellite data, AI, and smart sensors to provide real-time flood detection and early warning systems for vulnerable communities. We empower local governments, farmers, and emergency responders with tools to predict, monitor, and respond to flood risks, helping save lives, protect farmlands, and build climate resilience from the grassroots.</v>
-      </c>
-      <c r="M14" t="str">
-        <v>Disaster Management</v>
-      </c>
-      <c r="N14" t="str">
-        <v>Nil</v>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
       </c>
       <c r="O14">
         <v>9.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Friendnpal</v>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>78</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1073,40 +2229,40 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G15" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H15" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I15" t="str">
-        <v>Female</v>
-      </c>
-      <c r="J15" t="str">
-        <v>esstar100@gmail.com</v>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K15">
         <v>2349055570782</v>
       </c>
-      <c r="L15" t="str">
-        <v>FriendnPal is Africa’s first AI-powered, multilingual mental health platform, designed to break barriers of access, affordability, and stigma. By integrating AI-driven therapy, human therapists, and offline capabilities (WhatsApp, SMS, and voice-based interventions), we provide culturally relevant, stigma-free, and affordable mental health support to underserved communities, including migrants, refugees, and low-income populations.</v>
-      </c>
-      <c r="M15" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N15" t="str">
-        <v>https://friendnpal.com</v>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
       </c>
       <c r="O15">
         <v>1.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Galaxy Star Networking Limited</v>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>82</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1120,40 +2276,40 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G16" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H16" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J16" t="str">
-        <v>ameenuumarmalu@gmail.com</v>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="K16">
         <v>8036274417</v>
       </c>
-      <c r="L16" t="str">
-        <v>Emergency and security reporting system is software that provides sustainable sulution to criminal activities in Northern Nigeria and the country at large. The system will help the securities agencies to track the exact location of the incident as in the issue of emergency such as kidnappings, arm robbery, accident and other emergency problems. The system use satellite technology to track the movement of the victims and use Google Maps to track the exact location also the software use voice detection as means of reporting emergency issues to the relevant authorities.</v>
-      </c>
-      <c r="M16" t="str">
-        <v>Security</v>
-      </c>
-      <c r="N16" t="str">
-        <v>Nil</v>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
       </c>
       <c r="O16">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Geonet</v>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>86</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1167,40 +2323,40 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G17" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H17" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J17" t="str">
-        <v>sylvester.ola.george@gmail.ocm</v>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K17">
         <v>2348109564858</v>
       </c>
-      <c r="L17" t="str">
-        <v>Geonet Founded in May 2024, Geonet is a groundbreaking startup dedicated to bridging the digital divide in Nigeria. By leveraging advanced satellite internet technology, Geonet delivers reliable, high-speed connectivity to underserved rural and remote areas. Our mission is to empower communities by providing equal access to critical digital resources and communication opportunities.</v>
-      </c>
-      <c r="M17" t="str">
-        <v>Telecommunication</v>
-      </c>
-      <c r="N17" t="str">
-        <v>https://geonet.geoinc.co/</v>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
       </c>
       <c r="O17">
         <v>4.6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Green Acumen</v>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>90</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1214,40 +2370,40 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G18" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H18" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I18" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J18" t="str">
-        <v>sd@greenacumen.com</v>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K18">
         <v>2349038859159</v>
       </c>
-      <c r="L18" t="str">
-        <v>Green Acumen Technologies leverages satellite technology and AI powered platformed analytics for ESG and sustainability performance measurement, management and reporting.</v>
-      </c>
-      <c r="M18" t="str">
-        <v>Climate Change</v>
-      </c>
-      <c r="N18" t="str">
-        <v>www.greenacumen.com</v>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>93</v>
       </c>
       <c r="O18">
         <v>5.2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Gugu Robotics Inc.</v>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1261,40 +2417,40 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G19" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H19" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I19" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J19" t="str">
-        <v>Emmanuelobed877@gmail.com</v>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K19">
         <v>2348108425282</v>
       </c>
-      <c r="L19" t="str">
-        <v>Gugu Robotics is an innovative startup developing AI-powered robots and sustainable technology solutions for industries, defense, and exploration. Our cutting-edge products, like the Cybunk 5.1 rover and PhotonPulse Infinity Generator, push the boundaries of automation, energy, and autonomy. Recognized as Africa’s fastest-growing robotics company, we combine AI, robotics, and renewable energy to create intelligent, self-sustaining systems. The Future is Now!</v>
-      </c>
-      <c r="M19" t="str">
-        <v>Robotics</v>
-      </c>
-      <c r="N19" t="str">
-        <v>gugurobotics.com.ng</v>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
       </c>
       <c r="O19">
         <v>4.3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v xml:space="preserve">IDB ANALYTICS </v>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>99</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1308,40 +2464,40 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G20" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H20" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I20" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J20" t="str">
-        <v>idbanalyticsresearchlab@outlook.com</v>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="K20">
         <v>9067555049</v>
       </c>
-      <c r="L20" t="str">
-        <v>IDB ANALYTICS LTD is a data-driven research and technology company leveraging artificial intelligence, geospatial analytics, and satellite technology to address Nigeria’s most pressing security and environmental challenges. Our primary focus is mitigating conflicts between farmers and herders while enhancing security monitoring across hotspot zones prone to violence and insurgency.By integrating real-time satellite imagery, AI-powered predictive analytics, and mobile migration history data, we provide proactive conflict prevention and early warning systems for local communities, security agencies, and policymakers.</v>
-      </c>
-      <c r="M20" t="str">
-        <v>Security</v>
-      </c>
-      <c r="N20" t="str">
-        <v>Nil</v>
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
       </c>
       <c r="O20">
         <v>4.6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Idle Farmer</v>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>102</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1355,40 +2511,40 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G21" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H21" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J21" t="str">
-        <v>danielbalmun@gmail.com</v>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="K21">
         <v>2349056322083</v>
       </c>
-      <c r="L21" t="str">
-        <v>Idlefarmer is a digital solution that streamlines access to essential agricultural services for smallholder farmers through input aggregation, distribution, and mechanization. Through our web application, farmers can request and share tractors, place bulk orders for farm inputs, and access real-time support from our crowdsourced network of trusted local agents—all in one place. By grouping demand, Idlefarmer reduces costs, optimizes supply chains, and provides access to shared resources, making farming more efficient, affordable, and profitable. Idlefarmer captures farmer, land, and crop data per season, equipment ownership and mechanization data, input supply and demand trends, and farmer credit &amp; financial data—powering operations, financial services, and innovations to build a sustainable and profitable agricultural ecosystem.</v>
-      </c>
-      <c r="M21" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N21" t="str">
-        <v>www.idlefarmer.africa (in-view)</v>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
       </c>
       <c r="O21">
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>LeearNEXO</v>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>106</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1402,40 +2558,40 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G22" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H22" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I22" t="str">
-        <v>Female</v>
-      </c>
-      <c r="J22" t="str">
-        <v>fmdahunsi@gmail.com</v>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K22">
         <v>8101564160</v>
       </c>
-      <c r="L22" t="str">
-        <v>LearNEXO is a revolutionary edtech solution designed to transform the learning landscape. By harnessing the power of AI, VR, and space tech, we create tailored learning pathways that cater to diverse needs, including students with learning disabilities, and foster a robust educational foundation.</v>
-      </c>
-      <c r="M22" t="str">
-        <v>Ed-Tech</v>
-      </c>
-      <c r="N22" t="str">
-        <v>Nil</v>
+      <c r="L22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
       </c>
       <c r="O22">
         <v>5.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Melon Data Services</v>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>110</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1449,40 +2605,40 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G23" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H23" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I23" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J23" t="str">
-        <v>ayok.omoniyi@gmail.com</v>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="K23">
         <v>2348127775119</v>
       </c>
-      <c r="L23" t="str">
-        <v>Melon is a data technology company that provides innovative solutions for data collection, analysis, and visualization. It offers mobile tools for field data collection, real-time analytics, and geospatial intelligence to help organizations make informed decisions. Melon serves sectors like public health, impact evaluation, and retail mapping, leveraging AI and a network of field agents across Nigeria.</v>
-      </c>
-      <c r="M23" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N23" t="str">
-        <v>https://melon.ng/</v>
+      <c r="L23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
       </c>
       <c r="O23">
         <v>6.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Microvarsity</v>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>114</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1496,40 +2652,40 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G24" t="str">
-        <v>yes/maybe</v>
-      </c>
-      <c r="H24" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I24" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J24" t="str">
-        <v>browsedotcom247@gmail.com</v>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="K24">
         <v>8098929298</v>
       </c>
-      <c r="L24" t="str">
-        <v>Microvarsity is a vocational education platform empowering African entrepreneurs in high-impact sectors like agriculture and export. By offering practical, export-focused training, mentorship, and digital tools, we equip learners with the skills needed to scale their businesses globally and drive economic growth.</v>
-      </c>
-      <c r="M24" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N24" t="str">
-        <v>https://microvarsity.com/</v>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>118</v>
       </c>
       <c r="O24">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>MyFerry</v>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>119</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1543,40 +2699,40 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G25" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H25" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I25" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J25" t="str">
-        <v>samuel.oke@aide-solutions.com</v>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="K25">
         <v>2348134769235</v>
       </c>
-      <c r="L25" t="str">
-        <v>myFerry is a revolutionary mobile-first platform transforming waterway transportation in Nigeria. It aims to solve key challenges such as unreliable scheduling, limited booking options, safety concerns, and underutilized leisure opportunities by integrating advancEd-Technology, including space technology for real-time updates and safety insights.</v>
-      </c>
-      <c r="M25" t="str">
-        <v>Transportation/Logistics</v>
-      </c>
-      <c r="N25" t="str">
-        <v>https://efficentlyyours.my.canva.site/findmyferry</v>
+      <c r="L25" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
       </c>
       <c r="O25">
         <v>3.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>NEOGIA</v>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>123</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1590,40 +2746,40 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G26" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H26" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I26" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J26" t="str">
-        <v>mail4neogia@gmail.com</v>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="K26">
         <v>2348033730881</v>
       </c>
-      <c r="L26" t="str">
-        <v>Neogia is addressing the critical challenges of connectivity and power access in under-served communities across Africa. By leveraging innovative mobile solar charging stations equipped with satellite communication systems, the project provides clean energy and internet access to regions that are often excluded from traditional infrastructure development.</v>
-      </c>
-      <c r="M26" t="str">
-        <v>Climate Change</v>
-      </c>
-      <c r="N26" t="str">
-        <v>www.neogia.africa</v>
+      <c r="L26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>126</v>
       </c>
       <c r="O26">
         <v>1.1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Neura bridge</v>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>127</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1637,40 +2793,40 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G27" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H27" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I27" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J27" t="str">
-        <v>neurabridge@gmail.com</v>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="K27">
         <v>2349024992089</v>
       </c>
-      <c r="L27" t="str">
-        <v>At Neura Bridge, we are using cutting edge artificial intelligence to help users discover, track and convert their savings into the right assets for their financial goals such as stocks, ETFs, Bonds, Agro-commodities, etc</v>
-      </c>
-      <c r="M27" t="str">
-        <v>Fintech</v>
-      </c>
-      <c r="N27" t="str">
-        <v>Neurabridge.io</v>
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s">
+        <v>131</v>
       </c>
       <c r="O27">
         <v>4.3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>OneClick-Med</v>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>132</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -1684,40 +2840,40 @@
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G28" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H28" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I28" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J28" t="str">
-        <v>reagan.oneclickmed.ng@gmail.com</v>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="K28">
         <v>2348138364425</v>
       </c>
-      <c r="L28" t="str">
-        <v>OneClick-Med is a digital health platform designed to solve the inefficiencies in African healthcare systems caused by fragmented patient records, long wait times, and poor interoperability between hospitals and clinics</v>
-      </c>
-      <c r="M28" t="str">
-        <v>Health Tech</v>
-      </c>
-      <c r="N28" t="str">
-        <v>https://oneclickmed.ng/</v>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" t="s">
+        <v>135</v>
       </c>
       <c r="O28">
         <v>1.9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>PRGBYTE</v>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>136</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1731,40 +2887,40 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G29" t="str">
-        <v>yes/no</v>
-      </c>
-      <c r="H29" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I29" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J29" t="str">
-        <v>contact@program160.com.ng</v>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="K29">
         <v>9021284928</v>
       </c>
-      <c r="L29" t="str">
-        <v>PRGBYTE is a social impact startup dedicated to democratizing internet access in Nigeria. We are building a network of satellite-powered Wi-Fi hotspots, using NIGCOMSAT's infrastructure, to provide affordable, high-speed internet to communities lacking reliable connectivity. Our user-friendly app and flexible data plans make internet access accessible to everyone, driving economic growth and digital inclusion</v>
-      </c>
-      <c r="M29" t="str">
-        <v>Telecommunication</v>
-      </c>
-      <c r="N29" t="str">
-        <v>https://prgbyte.program160.com.ng</v>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>140</v>
       </c>
       <c r="O29">
         <v>5.2</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Shara Eco Solution</v>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>141</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1778,40 +2934,40 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G30" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H30" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I30" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J30" t="str">
-        <v>khaleedbnwaleed@gmail.com</v>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="K30">
         <v>8169525295</v>
       </c>
-      <c r="L30" t="str">
-        <v>hara Eco Solutions Ltd. is an innovative waste management startup committed to transforming waste into valuable, eco-friendly resources. Based in Nigeria, our mission is to revolutionize the waste management sector by employing cutting-edge technologies and sustainable practices to reduce environmental impact, enhance recycling, and promote resource recovery</v>
-      </c>
-      <c r="M30" t="str">
-        <v>Climate Change</v>
-      </c>
-      <c r="N30" t="str">
-        <v>http://www.shara.com.ng/</v>
+      <c r="L30" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>144</v>
       </c>
       <c r="O30">
         <v>2.9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Smartiphy</v>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>145</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -1825,40 +2981,40 @@
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G31" t="str">
-        <v>yes/maybe</v>
-      </c>
-      <c r="H31" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I31" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J31" t="str">
-        <v>iotdatainfo@gmail.com</v>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="K31">
         <v>2348131074040</v>
       </c>
-      <c r="L31" t="str">
-        <v>Our company is an IoT and robotics focus enterprise, we build smart solutions based on these technologies to solve agricultural, energy and industrial problems.</v>
-      </c>
-      <c r="M31" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N31" t="str">
-        <v>Nil</v>
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
       </c>
       <c r="O31">
         <v>4.7</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>SoilGenie</v>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>148</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1872,40 +3028,40 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G32" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H32" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I32" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J32" t="str">
-        <v>Aliyuddeen95@gmail.com</v>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K32">
         <v>2347034444845</v>
       </c>
-      <c r="L32" t="str">
-        <v>SoilGenie is an innovative AgriTech startup that leverages data-driven insights to help farmers optimize soil health and maximize crop yields. Our platform provides real-time soil analysis, personalized fertilization recommendations, and precision agriculture solutions, enabling smallholder farmers to increase productivity and sustainability</v>
-      </c>
-      <c r="M32" t="str">
-        <v>Agri-Tech</v>
-      </c>
-      <c r="N32" t="str">
-        <v>https://soilgenie.pages.dev</v>
+      <c r="L32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>151</v>
       </c>
       <c r="O32">
         <v>3.1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Teachly</v>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>152</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1919,40 +3075,40 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G33" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H33" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I33" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J33" t="str">
-        <v>tokunboadekanla@gmail.com</v>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="K33">
         <v>8030746207</v>
       </c>
-      <c r="L33" t="str">
-        <v>Teachly is connecting tutors with eager learners across the globe outside the typical academics and traditional classroom. The big concept is to learn anywhere anytime without boundary. We are empowering tutors and enabling connections both in the formal and informal sectors without looking at the typical academic environment.</v>
-      </c>
-      <c r="M33" t="str">
-        <v>Ed-Tech</v>
-      </c>
-      <c r="N33" t="str">
-        <v>https://www.teachly.com.ng</v>
+      <c r="L33" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" t="s">
+        <v>155</v>
       </c>
       <c r="O33">
         <v>1.6</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>VOREM</v>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>156</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1966,40 +3122,40 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G34" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H34" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I34" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J34" t="str">
-        <v>dominicrume@gmail.com</v>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="K34">
         <v>7071762688</v>
       </c>
-      <c r="L34" t="str">
-        <v>SPACE , AI and blockchain</v>
-      </c>
-      <c r="M34" t="str">
-        <v>AI</v>
-      </c>
-      <c r="N34" t="str">
-        <v>vorem.co</v>
+      <c r="L34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>159</v>
       </c>
       <c r="O34">
         <v>5.6</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>WatchersNg</v>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>160</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2013,40 +3169,40 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G35" t="str">
-        <v>maybe</v>
-      </c>
-      <c r="H35" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I35" t="str">
-        <v>Female</v>
-      </c>
-      <c r="J35" t="str">
-        <v>syenzy00@gmail.com</v>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="K35">
         <v>8142694307</v>
       </c>
-      <c r="L35" t="str">
-        <v>Watchers.ng is a community-driven security platform that enhances public safety through real-time incident reporting and emergency response.</v>
-      </c>
-      <c r="M35" t="str">
-        <v>Security</v>
-      </c>
-      <c r="N35" t="str">
-        <v>Nil</v>
+      <c r="L35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
       </c>
       <c r="O35">
         <v>5.9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Zion Robotics</v>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>164</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2060,40 +3216,79 @@
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G36" t="str">
-        <v>yes</v>
-      </c>
-      <c r="H36" t="str">
-        <v>yes</v>
-      </c>
-      <c r="I36" t="str">
-        <v>Male</v>
-      </c>
-      <c r="J36" t="str">
-        <v>emekaosu@gmail.com</v>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="K36">
         <v>2347089770190</v>
       </c>
-      <c r="L36" t="str">
-        <v>We manufacture made-in-Nigeria robotics kits and Internet of Things development boards. We are the robotics development platform for African education</v>
-      </c>
-      <c r="M36" t="str">
-        <v>Robotics</v>
-      </c>
-      <c r="N36" t="str">
-        <v>https://zionrobots.com.ng</v>
+      <c r="L36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" t="s">
+        <v>167</v>
       </c>
       <c r="O36">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="tosine007@gmail.com"/>
+    <hyperlink ref="J3" r:id="rId2" display="iamismailahmadbiso@gmail.com" tooltip="mailto:iamismailahmadbiso@gmail.com"/>
+    <hyperlink ref="J4" r:id="rId3" display="uzo@anadata.co"/>
+    <hyperlink ref="J5" r:id="rId4" display="alfarouqfahm52@gmail.com"/>
+    <hyperlink ref="J6" r:id="rId5" display="uramalan@gmail.com"/>
+    <hyperlink ref="J7" r:id="rId6" display="dilivarinc@gmail.com"/>
+    <hyperlink ref="J8" r:id="rId7" display="akinsanyataiwo49@gmail.com"/>
+    <hyperlink ref="J9" r:id="rId8" display="folake@emergencyresponseafrica.com"/>
+    <hyperlink ref="J10" r:id="rId9" display="farminteltechnologies@gmail.com"/>
+    <hyperlink ref="J11" r:id="rId10" display="muhammadmuhammadtukur13@gmail.com"/>
+    <hyperlink ref="J12" r:id="rId11" display="christopheremelifejnr@gmail.com"/>
+    <hyperlink ref="J13" r:id="rId12" display="bbkrbashir@yahoo.com"/>
+    <hyperlink ref="J14" r:id="rId13" display="usmaniliyasu77@gmail.com"/>
+    <hyperlink ref="J15" r:id="rId14" display="esstar100@gmail.com"/>
+    <hyperlink ref="J16" r:id="rId15" display="ameenuumarmalu@gmail.com"/>
+    <hyperlink ref="J17" r:id="rId16" display="sylvester.ola.george@gmail.ocm"/>
+    <hyperlink ref="J18" r:id="rId17" display="sd@greenacumen.com"/>
+    <hyperlink ref="J19" r:id="rId18" display="Emmanuelobed877@gmail.com"/>
+    <hyperlink ref="J20" r:id="rId19" display="idbanalyticsresearchlab@outlook.com"/>
+    <hyperlink ref="J21" r:id="rId20" display="danielbalmun@gmail.com"/>
+    <hyperlink ref="J22" r:id="rId21" display="fmdahunsi@gmail.com"/>
+    <hyperlink ref="J23" r:id="rId22" display="ayok.omoniyi@gmail.com"/>
+    <hyperlink ref="J24" r:id="rId23" display="browsedotcom247@gmail.com"/>
+    <hyperlink ref="J25" r:id="rId24" display="samuel.oke@aide-solutions.com"/>
+    <hyperlink ref="J26" r:id="rId25" display="mail4neogia@gmail.com"/>
+    <hyperlink ref="J27" r:id="rId26" display="neurabridge@gmail.com"/>
+    <hyperlink ref="J28" r:id="rId27" display="reagan.oneclickmed.ng@gmail.com"/>
+    <hyperlink ref="J29" r:id="rId28" display="contact@program160.com.ng"/>
+    <hyperlink ref="J30" r:id="rId29" display="khaleedbnwaleed@gmail.com"/>
+    <hyperlink ref="J31" r:id="rId30" display="iotdatainfo@gmail.com"/>
+    <hyperlink ref="J32" r:id="rId31" display="Aliyuddeen95@gmail.com"/>
+    <hyperlink ref="J33" r:id="rId32" display="tokunboadekanla@gmail.com"/>
+    <hyperlink ref="J34" r:id="rId33" display="dominicrume@gmail.com"/>
+    <hyperlink ref="J35" r:id="rId34" display="syenzy00@gmail.com"/>
+    <hyperlink ref="J36" r:id="rId35" display="emekaosu@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O36"/>
+    <ignoredError sqref="A1:O1 B2:I36 K2:O36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>